--- a/Excel_avance.xlsx
+++ b/Excel_avance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaswolff/Desktop/25_20/TECNOLOGIAS_DEL_HORMIGON/TAREAS/TH_TALLER_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db108f0a9d2e271a/Escritorio/202520/Tecnología del Hormigón/TH_TALLER_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839899BF-A8CC-0542-B559-FEF905BF74CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{31D304DE-4E80-7E49-B756-D776838E9ED7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{31D304DE-4E80-7E49-B756-D776838E9ED7}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="6" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -834,7 +834,7 @@
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="d\.m"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -949,6 +949,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1375,7 +1376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1795,16 +1796,139 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1831,151 +1955,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2004,7 +1999,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2067,7 +2062,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2636,6 +2631,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2643,7 +2639,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2681,7 +2676,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2748,7 +2743,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3480,6 +3475,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3487,7 +3483,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3525,7 +3520,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3592,7 +3587,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4143,6 +4138,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4150,7 +4146,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4188,7 +4183,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4255,7 +4250,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4987,6 +4982,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4994,7 +4990,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5032,7 +5027,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5099,7 +5094,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6266,6 +6261,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6273,7 +6269,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6311,7 +6306,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7247,6 +7242,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7254,7 +7250,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7292,7 +7287,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8398,6 +8393,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8405,7 +8401,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12981,44 +12976,44 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:AI96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="87" zoomScaleNormal="216" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="87" zoomScaleNormal="216" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="13"/>
+    <col min="1" max="2" width="25.6875" style="13"/>
     <col min="3" max="3" width="25.5" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="13"/>
+    <col min="6" max="6" width="24.6875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6875" style="13"/>
     <col min="9" max="9" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.8125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.3125" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6875" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.3125" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.33203125" style="13" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.6875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.3125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.3125" style="13" customWidth="1"/>
+    <col min="25" max="25" width="10.3125" style="13" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.6640625" style="13"/>
+    <col min="29" max="30" width="9.3125" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.8125" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.6875" style="13"/>
     <col min="33" max="33" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="25.6640625" style="13"/>
+    <col min="34" max="34" width="6.8125" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.1875" style="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="25.6875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:35">
@@ -13042,15 +13037,15 @@
       <c r="S1" s="50"/>
       <c r="T1" s="50"/>
       <c r="U1" s="50"/>
-      <c r="X1" s="143" t="s">
+      <c r="X1" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="143"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
     </row>
     <row r="2" spans="2:35">
       <c r="B2" s="50"/>
@@ -13058,31 +13053,31 @@
       <c r="D2" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="143" t="s">
+      <c r="E2" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="156" t="str">
+      <c r="K2" s="196" t="str">
         <f>D12</f>
         <v>Grava 2</v>
       </c>
-      <c r="L2" s="145"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="157" t="str">
+      <c r="L2" s="176"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="197" t="str">
         <f>D11</f>
         <v>Gravilla 1</v>
       </c>
-      <c r="O2" s="145"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="144" t="str">
+      <c r="O2" s="176"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="187" t="str">
         <f>D10</f>
         <v>Arena 1</v>
       </c>
-      <c r="R2" s="145"/>
-      <c r="S2" s="146"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="180"/>
       <c r="T2" s="20" t="s">
         <v>67</v>
       </c>
@@ -13095,35 +13090,35 @@
       <c r="X2" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="Y2" s="204" t="s">
+      <c r="Y2" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="Z2" s="204" t="s">
+      <c r="Z2" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" s="204" t="s">
+      <c r="AA2" s="145" t="s">
         <v>168</v>
       </c>
-      <c r="AB2" s="204" t="s">
+      <c r="AB2" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" s="204" t="str">
+      <c r="AC2" s="145" t="str">
         <f>J8</f>
         <v>1 1/2"</v>
       </c>
-      <c r="AD2" s="204" t="s">
+      <c r="AD2" s="145" t="s">
         <v>170</v>
       </c>
-      <c r="AE2" s="204" t="s">
+      <c r="AE2" s="145" t="s">
         <v>171</v>
       </c>
-      <c r="AG2" s="143" t="s">
+      <c r="AG2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="AH2" s="143"/>
+      <c r="AH2" s="147"/>
     </row>
     <row r="3" spans="2:35" ht="17" customHeight="1">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="188" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -13132,33 +13127,33 @@
       <c r="D3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="I3" s="150" t="s">
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="I3" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152" t="s">
+      <c r="J3" s="192"/>
+      <c r="K3" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="151"/>
+      <c r="L3" s="192"/>
       <c r="M3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="153" t="s">
+      <c r="N3" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="151"/>
+      <c r="O3" s="192"/>
       <c r="P3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="154" t="s">
+      <c r="Q3" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="151"/>
+      <c r="R3" s="192"/>
       <c r="S3" s="85" t="s">
         <v>8</v>
       </c>
@@ -13204,18 +13199,18 @@
       </c>
     </row>
     <row r="4" spans="2:35" ht="17" customHeight="1">
-      <c r="B4" s="148"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="92">
         <v>0.01</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
       <c r="I4" s="88" t="s">
         <v>10</v>
       </c>
@@ -13295,18 +13290,18 @@
       </c>
     </row>
     <row r="5" spans="2:35">
-      <c r="B5" s="148"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="45">
         <v>9.5</v>
       </c>
-      <c r="E5" s="158" t="s">
+      <c r="E5" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="151"/>
       <c r="I5" s="1">
         <v>75</v>
       </c>
@@ -13377,15 +13372,15 @@
         <v>1</v>
       </c>
       <c r="T5" s="21">
-        <f>$C$26*M5+$C$27*P5+$C$28*S5</f>
+        <f t="shared" ref="T5:T19" si="0">$C$26*M5+$C$27*P5+$C$28*S5</f>
         <v>1</v>
       </c>
       <c r="U5" s="16">
-        <f>$C$31*M5+$C$32*P5+$C$33*S5</f>
+        <f t="shared" ref="U5:U19" si="1">$C$31*M5+$C$32*P5+$C$33*S5</f>
         <v>1</v>
       </c>
       <c r="V5" s="16">
-        <f>M5*$E$31+P5*$E$32+S5*$E$33</f>
+        <f t="shared" ref="V5:V19" si="2">M5*$E$31+P5*$E$32+S5*$E$33</f>
         <v>1.0000000000009583</v>
       </c>
       <c r="X5" s="14" t="s">
@@ -13423,18 +13418,18 @@
       </c>
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1">
-      <c r="B6" s="148"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="155" t="s">
+      <c r="E6" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
       <c r="I6" s="1">
         <v>63</v>
       </c>
@@ -13505,15 +13500,15 @@
         <v>1</v>
       </c>
       <c r="T6" s="21">
-        <f>$C$26*M6+$C$27*P6+$C$28*S6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U6" s="16">
-        <f>$C$31*M6+$C$32*P6+$C$33*S6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V6" s="16">
-        <f>M6*$E$31+P6*$E$32+S6*$E$33</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000009583</v>
       </c>
       <c r="X6" s="14" t="s">
@@ -13551,18 +13546,18 @@
       </c>
     </row>
     <row r="7" spans="2:35" ht="35" customHeight="1">
-      <c r="B7" s="148"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="155" t="s">
+      <c r="E7" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
       <c r="I7" s="1">
         <v>50</v>
       </c>
@@ -13633,15 +13628,15 @@
         <v>1</v>
       </c>
       <c r="T7" s="21">
-        <f>$C$26*M7+$C$27*P7+$C$28*S7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U7" s="16">
-        <f>$C$31*M7+$C$32*P7+$C$33*S7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V7" s="16">
-        <f>M7*$E$31+P7*$E$32+S7*$E$33</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000009583</v>
       </c>
       <c r="X7" s="14" t="s">
@@ -13664,19 +13659,19 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="8" spans="2:35" ht="68">
-      <c r="B8" s="148"/>
+    <row r="8" spans="2:35" ht="63">
+      <c r="B8" s="189"/>
       <c r="C8" s="52" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="143" t="s">
+      <c r="E8" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
       <c r="I8" s="1">
         <v>37.5</v>
       </c>
@@ -13747,15 +13742,15 @@
         <v>1</v>
       </c>
       <c r="T8" s="21">
-        <f>$C$26*M8+$C$27*P8+$C$28*S8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U8" s="16">
-        <f>$C$31*M8+$C$32*P8+$C$33*S8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V8" s="16">
-        <f>M8*$E$31+P8*$E$32+S8*$E$33</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000009583</v>
       </c>
       <c r="X8" s="111" t="s">
@@ -13792,19 +13787,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:35" ht="34" customHeight="1">
-      <c r="B9" s="148"/>
+    <row r="9" spans="2:35" ht="34.049999999999997" customHeight="1">
+      <c r="B9" s="189"/>
       <c r="C9" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="155" t="s">
+      <c r="E9" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
       <c r="I9" s="1">
         <v>25</v>
       </c>
@@ -13875,15 +13870,15 @@
         <v>1</v>
       </c>
       <c r="T9" s="21">
-        <f>$C$26*M9+$C$27*P9+$C$28*S9</f>
+        <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
       <c r="U9" s="16">
-        <f>$C$31*M9+$C$32*P9+$C$33*S9</f>
+        <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
       <c r="V9" s="16">
-        <f>M9*$E$31+P9*$E$32+S9*$E$33</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000009583</v>
       </c>
       <c r="AG9" s="49">
@@ -13897,18 +13892,18 @@
       </c>
     </row>
     <row r="10" spans="2:35">
-      <c r="B10" s="148"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="54" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="147" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
       <c r="I10" s="1">
         <v>19</v>
       </c>
@@ -13979,15 +13974,15 @@
         <v>1</v>
       </c>
       <c r="T10" s="21">
-        <f>$C$26*M10+$C$27*P10+$C$28*S10</f>
+        <f t="shared" si="0"/>
         <v>0.81899999999999995</v>
       </c>
       <c r="U10" s="16">
-        <f>$C$31*M10+$C$32*P10+$C$33*S10</f>
+        <f t="shared" si="1"/>
         <v>0.81899999999999995</v>
       </c>
       <c r="V10" s="16">
-        <f>M10*$E$31+P10*$E$32+S10*$E$33</f>
+        <f t="shared" si="2"/>
         <v>0.97375168830380976</v>
       </c>
       <c r="AG10" s="49">
@@ -14001,18 +13996,18 @@
       </c>
     </row>
     <row r="11" spans="2:35">
-      <c r="B11" s="148"/>
+      <c r="B11" s="189"/>
       <c r="C11" s="54" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="143" t="s">
+      <c r="E11" s="147" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
       <c r="I11" s="1">
         <v>12.5</v>
       </c>
@@ -14083,15 +14078,15 @@
         <v>1</v>
       </c>
       <c r="T11" s="21">
-        <f>$C$26*M11+$C$27*P11+$C$28*S11</f>
+        <f t="shared" si="0"/>
         <v>0.74099999999999988</v>
       </c>
       <c r="U11" s="16">
-        <f>$C$31*M11+$C$32*P11+$C$33*S11</f>
+        <f t="shared" si="1"/>
         <v>0.74099999999999988</v>
       </c>
       <c r="V11" s="16">
-        <f>M11*$E$31+P11*$E$32+S11*$E$33</f>
+        <f t="shared" si="2"/>
         <v>0.91375554728175601</v>
       </c>
       <c r="AG11" s="49">
@@ -14105,18 +14100,18 @@
       </c>
     </row>
     <row r="12" spans="2:35">
-      <c r="B12" s="149"/>
+      <c r="B12" s="190"/>
       <c r="C12" s="105" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="174" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
       <c r="I12" s="1">
         <v>9.5</v>
       </c>
@@ -14187,15 +14182,15 @@
         <v>0.94</v>
       </c>
       <c r="T12" s="21">
-        <f>$C$26*M12+$C$27*P12+$C$28*S12</f>
+        <f t="shared" si="0"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="U12" s="16">
-        <f>$C$31*M12+$C$32*P12+$C$33*S12</f>
+        <f t="shared" si="1"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="V12" s="16">
-        <f>M12*$E$31+P12*$E$32+S12*$E$33</f>
+        <f t="shared" si="2"/>
         <v>0.79375940625964458</v>
       </c>
       <c r="AG12" s="49">
@@ -14216,11 +14211,11 @@
       <c r="D13" s="107">
         <v>0</v>
       </c>
-      <c r="E13" s="143" t="s">
+      <c r="E13" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
       <c r="I13" s="1">
         <v>6.3</v>
       </c>
@@ -14291,15 +14286,15 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="T13" s="21">
-        <f>$C$26*M13+$C$27*P13+$C$28*S13</f>
+        <f t="shared" si="0"/>
         <v>0.48099999999999993</v>
       </c>
       <c r="U13" s="16">
-        <f>$C$31*M13+$C$32*P13+$C$33*S13</f>
+        <f t="shared" si="1"/>
         <v>0.48099999999999993</v>
       </c>
       <c r="V13" s="16">
-        <f>M13*$E$31+P13*$E$32+S13*$E$33</f>
+        <f t="shared" si="2"/>
         <v>0.60126278286521329</v>
       </c>
       <c r="AG13" s="49">
@@ -14314,11 +14309,8 @@
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="50"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="143"/>
       <c r="I14" s="1">
         <v>4.75</v>
       </c>
@@ -14389,15 +14381,15 @@
         <v>0.73</v>
       </c>
       <c r="T14" s="21">
-        <f>$C$26*M14+$C$27*P14+$C$28*S14</f>
+        <f t="shared" si="0"/>
         <v>0.37099999999999994</v>
       </c>
       <c r="U14" s="16">
-        <f>$C$31*M14+$C$32*P14+$C$33*S14</f>
+        <f t="shared" si="1"/>
         <v>0.37099999999999994</v>
       </c>
       <c r="V14" s="16">
-        <f>M14*$E$31+P14*$E$32+S14*$E$33</f>
+        <f t="shared" si="2"/>
         <v>0.46376712421533567</v>
       </c>
       <c r="AG14" s="49">
@@ -14412,11 +14404,10 @@
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="50"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="201"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
       <c r="I15" s="1">
         <v>2.36</v>
       </c>
@@ -14487,15 +14478,15 @@
         <v>0.63</v>
       </c>
       <c r="T15" s="21">
-        <f>$C$26*M15+$C$27*P15+$C$28*S15</f>
+        <f t="shared" si="0"/>
         <v>0.31499999999999995</v>
       </c>
       <c r="U15" s="16">
-        <f>$C$31*M15+$C$32*P15+$C$33*S15</f>
+        <f t="shared" si="1"/>
         <v>0.31499999999999995</v>
       </c>
       <c r="V15" s="16">
-        <f>M15*$E$31+P15*$E$32+S15*$E$33</f>
+        <f t="shared" si="2"/>
         <v>0.39376519472626675</v>
       </c>
       <c r="AG15" s="49">
@@ -14583,15 +14574,15 @@
         <v>0.43</v>
       </c>
       <c r="T16" s="21">
-        <f>$C$26*M16+$C$27*P16+$C$28*S16</f>
+        <f t="shared" si="0"/>
         <v>0.21499999999999997</v>
       </c>
       <c r="U16" s="16">
-        <f>$C$31*M16+$C$32*P16+$C$33*S16</f>
+        <f t="shared" si="1"/>
         <v>0.21499999999999997</v>
       </c>
       <c r="V16" s="16">
-        <f>M16*$E$31+P16*$E$32+S16*$E$33</f>
+        <f t="shared" si="2"/>
         <v>0.26876037100364236</v>
       </c>
       <c r="AG16" s="49">
@@ -14692,15 +14683,15 @@
         <v>0.3</v>
       </c>
       <c r="T17" s="21">
-        <f>$C$26*M17+$C$27*P17+$C$28*S17</f>
+        <f t="shared" si="0"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="U17" s="16">
-        <f>$C$31*M17+$C$32*P17+$C$33*S17</f>
+        <f t="shared" si="1"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="V17" s="16">
-        <f>M17*$E$31+P17*$E$32+S17*$E$33</f>
+        <f t="shared" si="2"/>
         <v>0.18750723558393653</v>
       </c>
       <c r="AG17" s="49">
@@ -14714,10 +14705,10 @@
       </c>
     </row>
     <row r="18" spans="2:35">
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="146"/>
+      <c r="C18" s="180"/>
       <c r="D18" s="8">
         <f>IF($D$12="Grava 1", ARIDOS!S32,
  IF($D$12="Grava 2", ARIDOS!T32,
@@ -14812,15 +14803,15 @@
         <v>0.09</v>
       </c>
       <c r="T18" s="21">
-        <f>$C$26*M18+$C$27*P18+$C$28*S18</f>
+        <f t="shared" si="0"/>
         <v>4.4999999999999971E-2</v>
       </c>
       <c r="U18" s="16">
-        <f>$C$31*M18+$C$32*P18+$C$33*S18</f>
+        <f t="shared" si="1"/>
         <v>4.4999999999999971E-2</v>
       </c>
       <c r="V18" s="16">
-        <f>M18*$E$31+P18*$E$32+S18*$E$33</f>
+        <f t="shared" si="2"/>
         <v>5.6252170675180936E-2</v>
       </c>
       <c r="AG18" s="79">
@@ -14834,10 +14825,10 @@
       </c>
     </row>
     <row r="19" spans="2:35">
-      <c r="B19" s="164" t="s">
+      <c r="B19" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="146"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="8">
         <f>IF($D$12="Grava 1", ARIDOS!S33,
  IF($D$12="Grava 2", ARIDOS!T33,
@@ -14932,24 +14923,24 @@
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="T19" s="21">
-        <f>$C$26*M19+$C$27*P19+$C$28*S19</f>
+        <f t="shared" si="0"/>
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="U19" s="16">
-        <f>$C$31*M19+$C$32*P19+$C$33*S19</f>
+        <f t="shared" si="1"/>
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="V19" s="16">
-        <f>M19*$E$31+P19*$E$32+S19*$E$33</f>
+        <f t="shared" si="2"/>
         <v>3.1251205930656091E-2</v>
       </c>
     </row>
     <row r="20" spans="2:35">
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="175" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="203">
+      <c r="C20" s="180"/>
+      <c r="D20" s="144">
         <f>IF($D$12="Grava 1", ARIDOS!S34,
  IF($D$12="Grava 2", ARIDOS!T34,
  IF($D$12="Grava 3", ARIDOS!U34,
@@ -14974,10 +14965,10 @@
         <f>IF(D8="Melón Extra",2.81,IF(D8="Melón Especial",3,""))</f>
         <v>2.81</v>
       </c>
-      <c r="I20" s="164" t="s">
+      <c r="I20" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="145"/>
+      <c r="J20" s="176"/>
       <c r="K20" s="44">
         <f>IF($D$12="Grava 1", ARIDOS!D43,
  IF($D$12="Grava 2", ARIDOS!G43,
@@ -15010,30 +15001,30 @@
       <c r="V20" s="50"/>
     </row>
     <row r="21" spans="2:35">
-      <c r="B21" s="171" t="s">
+      <c r="B21" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="172"/>
+      <c r="C21" s="185"/>
       <c r="D21" s="94">
         <f>D20*1000</f>
         <v>2600</v>
       </c>
       <c r="E21" s="94">
-        <f t="shared" ref="E21:F21" si="0">E20*1000</f>
+        <f t="shared" ref="E21:F21" si="3">E20*1000</f>
         <v>2800</v>
       </c>
       <c r="F21" s="95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2700</v>
       </c>
       <c r="G21" s="96">
         <f>G20*1000</f>
         <v>2810</v>
       </c>
-      <c r="I21" s="164" t="s">
+      <c r="I21" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="146"/>
+      <c r="J21" s="180"/>
       <c r="K21" s="5">
         <f>IF($D$12="Grava 1", ARIDOS!D44,
  IF($D$12="Grava 2", ARIDOS!G44,
@@ -15065,10 +15056,10 @@
       <c r="U21" s="50"/>
     </row>
     <row r="22" spans="2:35">
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="146"/>
       <c r="D22" s="40" t="str">
         <f>G18</f>
         <v>-</v>
@@ -15099,10 +15090,10 @@
       <c r="U22" s="50"/>
     </row>
     <row r="23" spans="2:35">
-      <c r="B23" s="162" t="s">
+      <c r="B23" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="162"/>
+      <c r="C23" s="173"/>
       <c r="D23" s="40" t="str">
         <f>G19</f>
         <v>-</v>
@@ -15122,38 +15113,38 @@
     <row r="24" spans="2:35">
       <c r="B24" s="10"/>
       <c r="C24" s="93"/>
-      <c r="I24" s="168" t="s">
+      <c r="I24" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="169"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="169"/>
-      <c r="P24" s="169"/>
-      <c r="Q24" s="169"/>
-      <c r="R24" s="169"/>
-      <c r="S24" s="169"/>
-      <c r="T24" s="169"/>
-      <c r="U24" s="169"/>
-      <c r="V24" s="169"/>
-      <c r="W24" s="169"/>
-      <c r="X24" s="169"/>
-      <c r="Y24" s="170"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="182"/>
+      <c r="S24" s="182"/>
+      <c r="T24" s="182"/>
+      <c r="U24" s="182"/>
+      <c r="V24" s="182"/>
+      <c r="W24" s="182"/>
+      <c r="X24" s="182"/>
+      <c r="Y24" s="183"/>
       <c r="Z24" s="58"/>
-      <c r="AA24" s="176" t="s">
+      <c r="AA24" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="AB24" s="176"/>
-      <c r="AC24" s="176"/>
-      <c r="AD24" s="176"/>
+      <c r="AB24" s="172"/>
+      <c r="AC24" s="172"/>
+      <c r="AD24" s="172"/>
     </row>
     <row r="25" spans="2:35">
-      <c r="C25" s="167" t="s">
+      <c r="C25" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="167"/>
+      <c r="D25" s="179"/>
       <c r="F25" s="50"/>
       <c r="I25" s="60" t="s">
         <v>47</v>
@@ -15224,10 +15215,10 @@
         <f>D12</f>
         <v>Grava 2</v>
       </c>
-      <c r="C26" s="174">
+      <c r="C26" s="170">
         <v>0.2</v>
       </c>
-      <c r="D26" s="174"/>
+      <c r="D26" s="170"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -15284,19 +15275,19 @@
         <v>1</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA35" si="1">AVERAGE(J26:M26)</f>
+        <f t="shared" ref="AA26:AA35" si="4">AVERAGE(J26:M26)</f>
         <v>1</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB35" si="2">AVERAGE(N26:Q26)</f>
+        <f t="shared" ref="AB26:AB35" si="5">AVERAGE(N26:Q26)</f>
         <v>1</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC35" si="3">AVERAGE(R26:U26)</f>
+        <f t="shared" ref="AC26:AC35" si="6">AVERAGE(R26:U26)</f>
         <v>1</v>
       </c>
       <c r="AD26" s="16">
-        <f t="shared" ref="AD26:AD35" si="4">AVERAGE(V26:Y26)</f>
+        <f t="shared" ref="AD26:AD35" si="7">AVERAGE(V26:Y26)</f>
         <v>1</v>
       </c>
     </row>
@@ -15305,10 +15296,10 @@
         <f>D11</f>
         <v>Gravilla 1</v>
       </c>
-      <c r="C27" s="174">
+      <c r="C27" s="170">
         <v>0.3</v>
       </c>
-      <c r="D27" s="174"/>
+      <c r="D27" s="170"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
@@ -15365,19 +15356,19 @@
         <v>1</v>
       </c>
       <c r="AA27" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.67499999999999993</v>
       </c>
       <c r="AB27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AC27" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15386,10 +15377,10 @@
         <f>D10</f>
         <v>Arena 1</v>
       </c>
-      <c r="C28" s="174">
+      <c r="C28" s="170">
         <v>0.5</v>
       </c>
-      <c r="D28" s="174"/>
+      <c r="D28" s="170"/>
       <c r="I28" s="31">
         <v>20</v>
       </c>
@@ -15442,19 +15433,19 @@
         <v>1</v>
       </c>
       <c r="AA28" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AB28" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="AC28" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15514,27 +15505,27 @@
         <v>1</v>
       </c>
       <c r="AA29" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AB29" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.52749999999999997</v>
       </c>
       <c r="AC29" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.64249999999999996</v>
       </c>
       <c r="AD29" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:35">
-      <c r="C30" s="175" t="s">
+      <c r="C30" s="171" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="175"/>
+      <c r="D30" s="171"/>
       <c r="E30" s="100" t="s">
         <v>116</v>
       </c>
@@ -15591,19 +15582,19 @@
         <v>0.3</v>
       </c>
       <c r="AA30" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37500000000000006</v>
       </c>
       <c r="AB30" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.42</v>
       </c>
       <c r="AC30" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="AD30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.63</v>
       </c>
     </row>
@@ -15612,10 +15603,10 @@
         <f>D12</f>
         <v>Grava 2</v>
       </c>
-      <c r="C31" s="165">
+      <c r="C31" s="177">
         <v>0.2</v>
       </c>
-      <c r="D31" s="165"/>
+      <c r="D31" s="177"/>
       <c r="E31" s="103">
         <v>0</v>
       </c>
@@ -15672,19 +15663,19 @@
         <v>0.3</v>
       </c>
       <c r="AA31" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AB31" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.26750000000000002</v>
       </c>
       <c r="AC31" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.39500000000000002</v>
       </c>
       <c r="AD31" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.49000000000000005</v>
       </c>
     </row>
@@ -15693,10 +15684,10 @@
         <f>D11</f>
         <v>Gravilla 1</v>
       </c>
-      <c r="C32" s="166">
+      <c r="C32" s="178">
         <v>0.3</v>
       </c>
-      <c r="D32" s="166"/>
+      <c r="D32" s="178"/>
       <c r="E32" s="104">
         <v>0.3749758813878365</v>
       </c>
@@ -15752,19 +15743,19 @@
         <v>0.3</v>
       </c>
       <c r="AA32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.18</v>
       </c>
       <c r="AB32" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="AC32" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.245</v>
       </c>
       <c r="AD32" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.38</v>
       </c>
     </row>
@@ -15773,10 +15764,10 @@
         <f>D10</f>
         <v>Arena 1</v>
       </c>
-      <c r="C33" s="166">
+      <c r="C33" s="178">
         <v>0.5</v>
       </c>
-      <c r="D33" s="166"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="104">
         <v>0.6250241186131219</v>
       </c>
@@ -15832,19 +15823,19 @@
         <v>0</v>
       </c>
       <c r="AA33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12250000000000001</v>
       </c>
       <c r="AB33" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13750000000000001</v>
       </c>
       <c r="AC33" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.17249999999999999</v>
       </c>
       <c r="AD33" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.20750000000000002</v>
       </c>
     </row>
@@ -15852,10 +15843,10 @@
       <c r="B34" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="173">
+      <c r="C34" s="169">
         <v>1</v>
       </c>
-      <c r="D34" s="173"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="81">
         <v>1</v>
       </c>
@@ -15911,19 +15902,19 @@
         <v>0</v>
       </c>
       <c r="AA34" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.2500000000000009E-2</v>
       </c>
       <c r="AB34" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="AC34" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="AD34" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.11</v>
       </c>
     </row>
@@ -15931,11 +15922,11 @@
       <c r="B35" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="174">
+      <c r="C35" s="170">
         <f>SUM(C31:D33)</f>
         <v>1</v>
       </c>
-      <c r="D35" s="174"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="81">
         <f>SUM(E31:E33)</f>
         <v>1.0000000000009583</v>
@@ -15992,19 +15983,19 @@
         <v>0</v>
       </c>
       <c r="AA35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="AB35" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="AC35" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="AD35" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
     </row>
@@ -16030,11 +16021,11 @@
       <c r="Y36" s="25"/>
     </row>
     <row r="37" spans="2:30">
-      <c r="B37" s="161" t="s">
+      <c r="B37" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
       <c r="F37" s="14" t="s">
         <v>134</v>
       </c>
@@ -16079,19 +16070,19 @@
       <c r="G38" s="14">
         <v>2.33</v>
       </c>
-      <c r="I38" s="179" t="s">
+      <c r="I38" s="149" t="s">
         <v>176</v>
       </c>
-      <c r="J38" s="159"/>
-      <c r="K38" s="159"/>
-      <c r="L38" s="159"/>
-      <c r="M38" s="160"/>
-      <c r="S38" s="161" t="s">
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="151"/>
+      <c r="S38" s="146" t="s">
         <v>173</v>
       </c>
-      <c r="T38" s="143"/>
-      <c r="U38" s="143"/>
-      <c r="V38" s="143"/>
+      <c r="T38" s="147"/>
+      <c r="U38" s="147"/>
+      <c r="V38" s="147"/>
     </row>
     <row r="39" spans="2:30" ht="36" customHeight="1">
       <c r="B39" s="14" t="s">
@@ -16138,14 +16129,14 @@
         <v>121</v>
       </c>
       <c r="R39" s="78"/>
-      <c r="S39" s="155" t="s">
+      <c r="S39" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="T39" s="155"/>
-      <c r="U39" s="155" t="s">
+      <c r="T39" s="157"/>
+      <c r="U39" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="V39" s="155"/>
+      <c r="V39" s="157"/>
     </row>
     <row r="40" spans="2:30">
       <c r="B40" s="14" t="s">
@@ -16165,22 +16156,22 @@
         <v>1.282</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" ref="I40:I49" si="5">I26</f>
+        <f t="shared" ref="I40:I49" si="8">I26</f>
         <v>80</v>
       </c>
       <c r="J40" s="30">
-        <f t="shared" ref="J40:J49" si="6">IF($D$5&lt;=10, AD26,
+        <f t="shared" ref="J40:J49" si="9">IF($D$5&lt;=10, AD26,
  IF($D$5&lt;=20, AC26,
   IF($D$5&lt;=40, AB26,
    IF($D$5&lt;=80, AA26, ""))))</f>
         <v>1</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" ref="K40:K54" si="7">I5</f>
+        <f t="shared" ref="K40:K54" si="10">I5</f>
         <v>75</v>
       </c>
       <c r="L40" s="30">
-        <f t="shared" ref="L40:L54" si="8">U5</f>
+        <f t="shared" ref="L40:L54" si="11">U5</f>
         <v>1</v>
       </c>
       <c r="M40" s="30" cm="1">
@@ -16213,16 +16204,16 @@
         <v>1</v>
       </c>
       <c r="R40" s="25"/>
-      <c r="S40" s="177">
-        <f t="shared" ref="S40:S49" si="9">J40</f>
+      <c r="S40" s="154">
+        <f t="shared" ref="S40:S49" si="12">J40</f>
         <v>1</v>
       </c>
-      <c r="T40" s="143"/>
-      <c r="U40" s="178">
-        <f t="shared" ref="U40:U49" si="10">M40</f>
+      <c r="T40" s="147"/>
+      <c r="U40" s="166">
+        <f t="shared" ref="U40:U49" si="13">M40</f>
         <v>1</v>
       </c>
-      <c r="V40" s="155"/>
+      <c r="V40" s="157"/>
     </row>
     <row r="41" spans="2:30">
       <c r="B41" s="14" t="s">
@@ -16242,19 +16233,19 @@
         <v>1.036</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="J41" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="L41" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M41" s="30" cm="1">
@@ -16275,28 +16266,28 @@
         <v>0</v>
       </c>
       <c r="O41" s="49">
-        <f t="shared" ref="O41:O54" si="11">MAX(0,AG5-$D$13)</f>
+        <f t="shared" ref="O41:O54" si="14">MAX(0,AG5-$D$13)</f>
         <v>0</v>
       </c>
       <c r="P41" s="49">
-        <f t="shared" ref="P41:P54" si="12">MIN(O41,MAX(0,AH5+$D$13))</f>
+        <f t="shared" ref="P41:P54" si="15">MIN(O41,MAX(0,AH5+$D$13))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="108">
-        <f t="shared" ref="Q41:Q54" si="13">IF(AND(ROUND(N41,5)&gt;=ROUND(P41,5), ROUND(N41,5)&lt;=ROUND(O41,5)),1,0)</f>
+        <f t="shared" ref="Q41:Q54" si="16">IF(AND(ROUND(N41,5)&gt;=ROUND(P41,5), ROUND(N41,5)&lt;=ROUND(O41,5)),1,0)</f>
         <v>1</v>
       </c>
       <c r="R41" s="25"/>
-      <c r="S41" s="177">
-        <f t="shared" si="9"/>
+      <c r="S41" s="154">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="T41" s="143"/>
-      <c r="U41" s="178">
-        <f t="shared" si="10"/>
+      <c r="T41" s="147"/>
+      <c r="U41" s="166">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V41" s="155"/>
+      <c r="V41" s="157"/>
     </row>
     <row r="42" spans="2:30">
       <c r="C42" s="14">
@@ -16313,19 +16304,19 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J42" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K42" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="L42" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M42" s="30" cm="1">
@@ -16342,48 +16333,48 @@
         <v>0.84161536203356024</v>
       </c>
       <c r="N42" s="80">
-        <f t="shared" ref="N42:N54" si="14">L41-L42</f>
+        <f t="shared" ref="N42:N54" si="17">L41-L42</f>
         <v>0</v>
       </c>
       <c r="O42" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P42" s="49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="108">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R42" s="25"/>
+      <c r="S42" s="154">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="108">
+        <v>1</v>
+      </c>
+      <c r="T42" s="147"/>
+      <c r="U42" s="166">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R42" s="25"/>
-      <c r="S42" s="177">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="T42" s="143"/>
-      <c r="U42" s="178">
-        <f t="shared" si="10"/>
         <v>0.84161536203356024</v>
       </c>
-      <c r="V42" s="155"/>
+      <c r="V42" s="157"/>
     </row>
     <row r="43" spans="2:30">
       <c r="I43" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J43" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K43" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>37.5</v>
       </c>
       <c r="L43" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M43" s="30" cm="1">
@@ -16400,39 +16391,39 @@
         <v>0.65481180475667256</v>
       </c>
       <c r="N43" s="80">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="49">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="49">
-        <f t="shared" si="11"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P43" s="49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="108">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R43" s="25"/>
+      <c r="S43" s="154">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="108">
+        <v>1</v>
+      </c>
+      <c r="T43" s="147"/>
+      <c r="U43" s="166">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R43" s="25"/>
-      <c r="S43" s="177">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="T43" s="143"/>
-      <c r="U43" s="178">
-        <f t="shared" si="10"/>
         <v>0.65481180475667256</v>
       </c>
-      <c r="V43" s="155"/>
+      <c r="V43" s="157"/>
     </row>
-    <row r="44" spans="2:30" ht="34">
-      <c r="B44" s="186" t="s">
+    <row r="44" spans="2:30" ht="31.5">
+      <c r="B44" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="187"/>
-      <c r="D44" s="188"/>
+      <c r="C44" s="161"/>
+      <c r="D44" s="162"/>
       <c r="F44" s="18" t="s">
         <v>138</v>
       </c>
@@ -16440,19 +16431,19 @@
         <v>139</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="J44" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.63</v>
       </c>
       <c r="K44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="L44" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.94</v>
       </c>
       <c r="M44" s="30" cm="1">
@@ -16469,37 +16460,37 @@
         <v>0.390979327830347</v>
       </c>
       <c r="N44" s="80">
+        <f t="shared" si="17"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="O44" s="49">
         <f t="shared" si="14"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="O44" s="49">
-        <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
       <c r="P44" s="49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="108">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R44" s="25"/>
+      <c r="S44" s="154">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="108">
+        <v>0.63</v>
+      </c>
+      <c r="T44" s="147"/>
+      <c r="U44" s="166">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R44" s="25"/>
-      <c r="S44" s="177">
-        <f t="shared" si="9"/>
-        <v>0.63</v>
-      </c>
-      <c r="T44" s="143"/>
-      <c r="U44" s="178">
-        <f t="shared" si="10"/>
         <v>0.390979327830347</v>
       </c>
-      <c r="V44" s="155"/>
+      <c r="V44" s="157"/>
     </row>
     <row r="45" spans="2:30">
-      <c r="B45" s="189"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="191"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="165"/>
       <c r="F45" s="98">
         <v>2000</v>
       </c>
@@ -16507,19 +16498,19 @@
         <v>0.82</v>
       </c>
       <c r="I45" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="J45" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.49000000000000005</v>
       </c>
       <c r="K45" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="L45" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.81899999999999995</v>
       </c>
       <c r="M45" s="30" cm="1">
@@ -16536,32 +16527,32 @@
         <v>0.31961373660749964</v>
       </c>
       <c r="N45" s="80">
+        <f t="shared" si="17"/>
+        <v>0.121</v>
+      </c>
+      <c r="O45" s="49">
         <f t="shared" si="14"/>
-        <v>0.121</v>
-      </c>
-      <c r="O45" s="49">
-        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="P45" s="49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="108">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R45" s="25"/>
+      <c r="S45" s="154">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="108">
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="T45" s="147"/>
+      <c r="U45" s="166">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R45" s="25"/>
-      <c r="S45" s="177">
-        <f t="shared" si="9"/>
-        <v>0.49000000000000005</v>
-      </c>
-      <c r="T45" s="143"/>
-      <c r="U45" s="178">
-        <f t="shared" si="10"/>
         <v>0.31961373660749964</v>
       </c>
-      <c r="V45" s="155"/>
+      <c r="V45" s="157"/>
     </row>
     <row r="46" spans="2:30">
       <c r="F46" s="98">
@@ -16571,19 +16562,19 @@
         <v>0.68</v>
       </c>
       <c r="I46" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="J46" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.38</v>
       </c>
       <c r="K46" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
       <c r="L46" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.74099999999999988</v>
       </c>
       <c r="M46" s="30" cm="1">
@@ -16600,32 +16591,32 @@
         <v>0.22331412353002456</v>
       </c>
       <c r="N46" s="80">
+        <f t="shared" si="17"/>
+        <v>7.8000000000000069E-2</v>
+      </c>
+      <c r="O46" s="49">
         <f t="shared" si="14"/>
-        <v>7.8000000000000069E-2</v>
-      </c>
-      <c r="O46" s="49">
-        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="P46" s="49">
+        <f t="shared" si="15"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q46" s="108">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R46" s="25"/>
+      <c r="S46" s="154">
         <f t="shared" si="12"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q46" s="108">
+        <v>0.38</v>
+      </c>
+      <c r="T46" s="147"/>
+      <c r="U46" s="166">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R46" s="25"/>
-      <c r="S46" s="177">
-        <f t="shared" si="9"/>
-        <v>0.38</v>
-      </c>
-      <c r="T46" s="143"/>
-      <c r="U46" s="178">
-        <f t="shared" si="10"/>
         <v>0.22331412353002456</v>
       </c>
-      <c r="V46" s="155"/>
+      <c r="V46" s="157"/>
     </row>
     <row r="47" spans="2:30">
       <c r="B47" s="13" t="s">
@@ -16648,19 +16639,19 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I47" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.63</v>
       </c>
       <c r="J47" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.20750000000000002</v>
       </c>
       <c r="K47" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.5</v>
       </c>
       <c r="L47" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="M47" s="30" cm="1">
@@ -16677,32 +16668,32 @@
         <v>0.1546890031332655</v>
       </c>
       <c r="N47" s="80">
+        <f t="shared" si="17"/>
+        <v>0.10599999999999987</v>
+      </c>
+      <c r="O47" s="49">
         <f t="shared" si="14"/>
-        <v>0.10599999999999987</v>
-      </c>
-      <c r="O47" s="49">
-        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="P47" s="49">
+        <f t="shared" si="15"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q47" s="108">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R47" s="25"/>
+      <c r="S47" s="154">
         <f t="shared" si="12"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q47" s="108">
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="T47" s="147"/>
+      <c r="U47" s="166">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R47" s="25"/>
-      <c r="S47" s="177">
-        <f t="shared" si="9"/>
-        <v>0.20750000000000002</v>
-      </c>
-      <c r="T47" s="143"/>
-      <c r="U47" s="178">
-        <f t="shared" si="10"/>
         <v>0.1546890031332655</v>
       </c>
-      <c r="V47" s="155"/>
+      <c r="V47" s="157"/>
     </row>
     <row r="48" spans="2:30">
       <c r="F48" s="98">
@@ -16712,19 +16703,19 @@
         <v>0.48</v>
       </c>
       <c r="I48" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.315</v>
       </c>
       <c r="J48" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.11</v>
       </c>
       <c r="K48" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.3</v>
       </c>
       <c r="L48" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.48099999999999993</v>
       </c>
       <c r="M48" s="30" cm="1">
@@ -16741,39 +16732,39 @@
         <v>5.2390879428596784E-2</v>
       </c>
       <c r="N48" s="80">
+        <f t="shared" si="17"/>
+        <v>0.15400000000000008</v>
+      </c>
+      <c r="O48" s="49">
         <f t="shared" si="14"/>
-        <v>0.15400000000000008</v>
-      </c>
-      <c r="O48" s="49">
-        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="P48" s="49">
+        <f t="shared" si="15"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q48" s="108">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R48" s="25"/>
+      <c r="S48" s="154">
         <f t="shared" si="12"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q48" s="108">
+        <v>0.11</v>
+      </c>
+      <c r="T48" s="147"/>
+      <c r="U48" s="166">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R48" s="25"/>
-      <c r="S48" s="177">
-        <f t="shared" si="9"/>
-        <v>0.11</v>
-      </c>
-      <c r="T48" s="143"/>
-      <c r="U48" s="178">
-        <f t="shared" si="10"/>
         <v>5.2390879428596784E-2</v>
       </c>
-      <c r="V48" s="155"/>
+      <c r="V48" s="157"/>
     </row>
     <row r="49" spans="2:28">
-      <c r="B49" s="158" t="s">
+      <c r="B49" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="159"/>
-      <c r="D49" s="160"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="151"/>
       <c r="F49" s="98">
         <v>6000</v>
       </c>
@@ -16781,19 +16772,19 @@
         <v>0.41</v>
       </c>
       <c r="I49" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.16</v>
       </c>
       <c r="J49" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="K49" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.75</v>
       </c>
       <c r="L49" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.37099999999999994</v>
       </c>
       <c r="M49" s="30" cm="1">
@@ -16810,32 +16801,32 @@
         <v>2.6862188087829624E-2</v>
       </c>
       <c r="N49" s="80">
+        <f t="shared" si="17"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="O49" s="49">
         <f t="shared" si="14"/>
-        <v>0.10999999999999999</v>
-      </c>
-      <c r="O49" s="49">
-        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="P49" s="49">
+        <f t="shared" si="15"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q49" s="108">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R49" s="25"/>
+      <c r="S49" s="154">
         <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
-      <c r="Q49" s="108">
+      <c r="T49" s="147"/>
+      <c r="U49" s="166">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R49" s="25"/>
-      <c r="S49" s="177">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="T49" s="143"/>
-      <c r="U49" s="178">
-        <f t="shared" si="10"/>
         <v>2.6862188087829624E-2</v>
       </c>
-      <c r="V49" s="155"/>
+      <c r="V49" s="157"/>
     </row>
     <row r="50" spans="2:28">
       <c r="F50" s="98">
@@ -16847,70 +16838,70 @@
       <c r="I50" s="15"/>
       <c r="J50" s="30"/>
       <c r="K50" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.36</v>
       </c>
       <c r="L50" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.31499999999999995</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="80">
+        <f t="shared" si="17"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="O50" s="49">
         <f t="shared" si="14"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="O50" s="49">
-        <f t="shared" si="11"/>
         <v>0.125</v>
       </c>
       <c r="P50" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q50" s="108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R50" s="25"/>
       <c r="U50" s="19"/>
       <c r="V50" s="19"/>
     </row>
-    <row r="51" spans="2:28" ht="17">
+    <row r="51" spans="2:28">
       <c r="C51" s="13" t="s">
         <v>87</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="30"/>
       <c r="K51" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.18</v>
       </c>
       <c r="L51" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.21499999999999997</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="80">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="O51" s="49">
         <f t="shared" si="14"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="O51" s="49">
-        <f t="shared" si="11"/>
         <v>0.125</v>
       </c>
       <c r="P51" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q51" s="108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R51" s="25"/>
-      <c r="S51" s="143" t="s">
+      <c r="S51" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="T51" s="143"/>
+      <c r="T51" s="147"/>
       <c r="U51" s="19"/>
       <c r="V51" s="18" t="s">
         <v>186</v>
@@ -16934,36 +16925,36 @@
       <c r="I52" s="15"/>
       <c r="J52" s="30"/>
       <c r="K52" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
       <c r="L52" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="80">
+        <f t="shared" si="17"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O52" s="49">
         <f t="shared" si="14"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O52" s="49">
-        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="P52" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q52" s="108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R52" s="25"/>
-      <c r="S52" s="143">
+      <c r="S52" s="147">
         <f>SUMX2MY2(S40:T49,U40:V49)</f>
         <v>1.3696792904670367</v>
       </c>
-      <c r="T52" s="143"/>
+      <c r="T52" s="147"/>
       <c r="U52" s="19"/>
       <c r="V52" s="18">
         <f>MIN($S$52)</f>
@@ -16980,28 +16971,28 @@
       <c r="I53" s="15"/>
       <c r="J53" s="30"/>
       <c r="K53" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
       <c r="L53" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.4999999999999971E-2</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="80">
+        <f t="shared" si="17"/>
+        <v>0.105</v>
+      </c>
+      <c r="O53" s="49">
         <f t="shared" si="14"/>
-        <v>0.105</v>
-      </c>
-      <c r="O53" s="49">
-        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="P53" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q53" s="108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R53" s="25"/>
@@ -17012,11 +17003,11 @@
       </c>
     </row>
     <row r="54" spans="2:28">
-      <c r="B54" s="158" t="s">
+      <c r="B54" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="159"/>
-      <c r="D54" s="160"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="151"/>
       <c r="F54" s="14" t="s">
         <v>145</v>
       </c>
@@ -17026,28 +17017,28 @@
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
       <c r="L54" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="80">
+        <f t="shared" si="17"/>
+        <v>1.9999999999999973E-2</v>
+      </c>
+      <c r="O54" s="49">
         <f t="shared" si="14"/>
-        <v>1.9999999999999973E-2</v>
-      </c>
-      <c r="O54" s="49">
-        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="P54" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q54" s="108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R54" s="25"/>
@@ -17112,34 +17103,34 @@
       <c r="G57" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I57" s="179" t="s">
+      <c r="I57" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="J57" s="159"/>
-      <c r="K57" s="160"/>
-      <c r="M57" s="179" t="s">
+      <c r="J57" s="150"/>
+      <c r="K57" s="151"/>
+      <c r="M57" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="N57" s="184"/>
-      <c r="O57" s="184"/>
-      <c r="P57" s="184"/>
-      <c r="Q57" s="184"/>
-      <c r="R57" s="184"/>
-      <c r="S57" s="184"/>
-      <c r="T57" s="185"/>
+      <c r="N57" s="152"/>
+      <c r="O57" s="152"/>
+      <c r="P57" s="152"/>
+      <c r="Q57" s="152"/>
+      <c r="R57" s="152"/>
+      <c r="S57" s="152"/>
+      <c r="T57" s="153"/>
       <c r="V57" s="14">
         <f>{0;0;0;100;0;FALSE;TRUE;"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,075""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""";0;0;FALSE;30}</f>
         <v>0</v>
       </c>
-      <c r="Y57" s="161" t="str">
+      <c r="Y57" s="146" t="str">
         <f>Y87</f>
         <v>Rendimiento</v>
       </c>
-      <c r="Z57" s="161"/>
-      <c r="AA57" s="161"/>
-      <c r="AB57" s="161"/>
+      <c r="Z57" s="146"/>
+      <c r="AA57" s="146"/>
+      <c r="AB57" s="146"/>
     </row>
-    <row r="58" spans="2:28" ht="49" customHeight="1">
+    <row r="58" spans="2:28" ht="49.05" customHeight="1">
       <c r="B58" s="13" t="s">
         <v>86</v>
       </c>
@@ -17415,9 +17406,9 @@
       </c>
     </row>
     <row r="62" spans="2:28">
-      <c r="B62" s="192"/>
-      <c r="C62" s="192"/>
-      <c r="D62" s="192"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="F62" s="14" t="s">
         <v>153</v>
       </c>
@@ -17502,7 +17493,7 @@
         <v>95</v>
       </c>
       <c r="M63" s="72" t="str">
-        <f t="shared" ref="M63:M64" si="15">I63</f>
+        <f t="shared" ref="M63:M64" si="18">I63</f>
         <v>Gravilla 1</v>
       </c>
       <c r="N63" s="13">
@@ -17514,7 +17505,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="P63" s="13">
-        <f t="shared" ref="P63:P64" si="16">-(N63*O63)/(O63+1)</f>
+        <f t="shared" ref="P63:P64" si="19">-(N63*O63)/(O63+1)</f>
         <v>-6.5690091778270938</v>
       </c>
       <c r="Q63" s="117">
@@ -17522,7 +17513,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="R63" s="118">
-        <f t="shared" ref="R63:R64" si="17">N63/(O63+1)</f>
+        <f t="shared" ref="R63:R64" si="20">N63/(O63+1)</f>
         <v>547.41743148559112</v>
       </c>
       <c r="S63" s="118">
@@ -17530,7 +17521,7 @@
         <v>38.319220203991385</v>
       </c>
       <c r="T63" s="73">
-        <f t="shared" ref="T63:T64" si="18">R63+S63</f>
+        <f t="shared" ref="T63:T64" si="21">R63+S63</f>
         <v>585.73665168958246</v>
       </c>
     </row>
@@ -17553,7 +17544,7 @@
         <v>95</v>
       </c>
       <c r="M64" s="72" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Arena 1</v>
       </c>
       <c r="N64" s="13">
@@ -17565,7 +17556,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="P64" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-10.948348629711822</v>
       </c>
       <c r="Q64" s="117">
@@ -17573,15 +17564,15 @@
         <v>0.06</v>
       </c>
       <c r="R64" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>912.36238580931843</v>
       </c>
       <c r="S64" s="118">
-        <f t="shared" ref="S64" si="19">R64*Q64</f>
+        <f t="shared" ref="S64" si="22">R64*Q64</f>
         <v>54.741743148559102</v>
       </c>
       <c r="T64" s="73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>967.10412895787749</v>
       </c>
     </row>
@@ -17630,7 +17621,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="6:23" ht="17">
+    <row r="67" spans="6:23">
       <c r="F67" s="18" t="s">
         <v>160</v>
       </c>
@@ -17645,21 +17636,21 @@
       <c r="G68" s="14">
         <v>4</v>
       </c>
-      <c r="I68" s="179" t="s">
+      <c r="I68" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="J68" s="159"/>
-      <c r="K68" s="159"/>
-      <c r="L68" s="159"/>
-      <c r="M68" s="160"/>
-      <c r="S68" s="179" t="s">
+      <c r="J68" s="150"/>
+      <c r="K68" s="150"/>
+      <c r="L68" s="150"/>
+      <c r="M68" s="151"/>
+      <c r="S68" s="149" t="s">
         <v>180</v>
       </c>
-      <c r="T68" s="184"/>
-      <c r="U68" s="184"/>
-      <c r="V68" s="185"/>
+      <c r="T68" s="152"/>
+      <c r="U68" s="152"/>
+      <c r="V68" s="153"/>
     </row>
-    <row r="69" spans="6:23" ht="17">
+    <row r="69" spans="6:23">
       <c r="F69" s="18" t="s">
         <v>162</v>
       </c>
@@ -17694,19 +17685,19 @@
         <v>121</v>
       </c>
       <c r="R69" s="78"/>
-      <c r="S69" s="155" t="s">
+      <c r="S69" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="T69" s="155"/>
-      <c r="U69" s="180" t="s">
+      <c r="T69" s="157"/>
+      <c r="U69" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="V69" s="181"/>
+      <c r="V69" s="159"/>
       <c r="W69" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="6:23" ht="34" customHeight="1">
+    <row r="70" spans="6:23" ht="34.049999999999997" customHeight="1">
       <c r="F70" s="18" t="s">
         <v>163</v>
       </c>
@@ -17714,22 +17705,22 @@
         <v>4</v>
       </c>
       <c r="I70" s="15">
-        <f t="shared" ref="I70:I79" si="20">I26</f>
+        <f t="shared" ref="I70:I79" si="23">I26</f>
         <v>80</v>
       </c>
       <c r="J70" s="30">
-        <f t="shared" ref="J70:J79" si="21">IF($D$5&lt;=10, AD26,
+        <f t="shared" ref="J70:J79" si="24">IF($D$5&lt;=10, AD26,
  IF($D$5&lt;=20, AC26,
   IF($D$5&lt;=40, AB26,
    IF($D$5&lt;=80, AA26, ""))))</f>
         <v>1</v>
       </c>
       <c r="K70" s="15">
-        <f t="shared" ref="K70:K84" si="22">I5</f>
+        <f t="shared" ref="K70:K84" si="25">I5</f>
         <v>75</v>
       </c>
       <c r="L70" s="30">
-        <f t="shared" ref="L70:L84" si="23">V5</f>
+        <f t="shared" ref="L70:L84" si="26">V5</f>
         <v>1.0000000000009583</v>
       </c>
       <c r="M70" s="30" cm="1">
@@ -17750,11 +17741,11 @@
         <v>-9.5834451485643513E-13</v>
       </c>
       <c r="O70" s="49">
-        <f t="shared" ref="O70:O84" si="24">MAX(0,AG4-$D$13)</f>
+        <f t="shared" ref="O70:O84" si="27">MAX(0,AG4-$D$13)</f>
         <v>0</v>
       </c>
       <c r="P70" s="99">
-        <f t="shared" ref="P70:P84" si="25">MIN(O40,MAX(0,AH4+$D$13))</f>
+        <f t="shared" ref="P70:P84" si="28">MIN(O40,MAX(0,AH4+$D$13))</f>
         <v>0</v>
       </c>
       <c r="Q70" s="14">
@@ -17762,24 +17753,24 @@
         <v>1</v>
       </c>
       <c r="R70" s="25"/>
-      <c r="S70" s="177">
+      <c r="S70" s="154">
         <f>MIN(1,POWER(I70/
  CHOOSE(MATCH($D$5,{9.5;12.5;19;25;37.5;50;75},0),
    10,20,20,40,40,80,80),0.5))</f>
         <v>1</v>
       </c>
-      <c r="T70" s="143"/>
-      <c r="U70" s="182">
-        <f t="shared" ref="U70:U79" si="26">M70</f>
+      <c r="T70" s="147"/>
+      <c r="U70" s="155">
+        <f t="shared" ref="U70:U79" si="29">M70</f>
         <v>1.0000000000009583</v>
       </c>
-      <c r="V70" s="183"/>
+      <c r="V70" s="156"/>
       <c r="W70" s="81">
         <f>(S70-U70)^2</f>
         <v>9.1842420915541601E-25</v>
       </c>
     </row>
-    <row r="71" spans="6:23" ht="17">
+    <row r="71" spans="6:23">
       <c r="F71" s="18" t="s">
         <v>164</v>
       </c>
@@ -17787,19 +17778,19 @@
         <v>4</v>
       </c>
       <c r="I71" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="J71" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="K71" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>63</v>
       </c>
       <c r="L71" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000009583</v>
       </c>
       <c r="M71" s="30" cm="1">
@@ -17820,36 +17811,36 @@
         <v>0</v>
       </c>
       <c r="O71" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P71" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q71" s="14">
-        <f t="shared" ref="Q71:Q84" si="27">IF(AND(ROUND(N71,5)&gt;=ROUND(P71,5), ROUND(N71,5)&lt;=ROUND(O71,5)),1,0)</f>
+        <f t="shared" ref="Q71:Q84" si="30">IF(AND(ROUND(N71,5)&gt;=ROUND(P71,5), ROUND(N71,5)&lt;=ROUND(O71,5)),1,0)</f>
         <v>1</v>
       </c>
       <c r="R71" s="25"/>
-      <c r="S71" s="177">
+      <c r="S71" s="154">
         <f>MIN(1,POWER(I71/
  CHOOSE(MATCH($D$5,{9.5;12.5;19;25;37.5;50;75},0),
    10,20,20,40,40,80,80),0.5))</f>
         <v>1</v>
       </c>
-      <c r="T71" s="143"/>
-      <c r="U71" s="182">
-        <f t="shared" si="26"/>
+      <c r="T71" s="147"/>
+      <c r="U71" s="155">
+        <f t="shared" si="29"/>
         <v>1.0000000000009583</v>
       </c>
-      <c r="V71" s="183"/>
+      <c r="V71" s="156"/>
       <c r="W71" s="81">
-        <f t="shared" ref="W71:W79" si="28">(S71-U71)^2</f>
+        <f t="shared" ref="W71:W79" si="31">(S71-U71)^2</f>
         <v>9.1842420915541601E-25</v>
       </c>
     </row>
-    <row r="72" spans="6:23" ht="17">
+    <row r="72" spans="6:23">
       <c r="F72" s="18" t="s">
         <v>17</v>
       </c>
@@ -17857,19 +17848,19 @@
         <v>4</v>
       </c>
       <c r="I72" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J72" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="K72" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="L72" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000009583</v>
       </c>
       <c r="M72" s="30" cm="1">
@@ -17886,54 +17877,54 @@
         <v>0.97865759798811347</v>
       </c>
       <c r="N72" s="80">
-        <f t="shared" ref="N72:N84" si="29">L71-L72</f>
+        <f t="shared" ref="N72:N84" si="32">L71-L72</f>
         <v>0</v>
       </c>
       <c r="O72" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P72" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q72" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R72" s="25"/>
-      <c r="S72" s="177">
+      <c r="S72" s="154">
         <f>MIN(1,POWER(I72/
  CHOOSE(MATCH($D$5,{9.5;12.5;19;25;37.5;50;75},0),
    10,20,20,40,40,80,80),0.5))</f>
         <v>1</v>
       </c>
-      <c r="T72" s="143"/>
-      <c r="U72" s="182">
-        <f t="shared" si="26"/>
+      <c r="T72" s="147"/>
+      <c r="U72" s="155">
+        <f t="shared" si="29"/>
         <v>0.97865759798811347</v>
       </c>
-      <c r="V72" s="183"/>
+      <c r="V72" s="156"/>
       <c r="W72" s="81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4.5549812363697819E-4</v>
       </c>
     </row>
     <row r="73" spans="6:23">
       <c r="I73" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J73" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="K73" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>37.5</v>
       </c>
       <c r="L73" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000009583</v>
       </c>
       <c r="M73" s="30" cm="1">
@@ -17950,54 +17941,54 @@
         <v>0.81618714321704289</v>
       </c>
       <c r="N73" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O73" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P73" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q73" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R73" s="25"/>
-      <c r="S73" s="177">
+      <c r="S73" s="154">
         <f>MIN(1,POWER(I73/
  CHOOSE(MATCH($D$5,{9.5;12.5;19;25;37.5;50;75},0),
    10,20,20,40,40,80,80),0.5))</f>
         <v>1</v>
       </c>
-      <c r="T73" s="143"/>
-      <c r="U73" s="182">
-        <f t="shared" si="26"/>
+      <c r="T73" s="147"/>
+      <c r="U73" s="155">
+        <f t="shared" si="29"/>
         <v>0.81618714321704289</v>
       </c>
-      <c r="V73" s="183"/>
+      <c r="V73" s="156"/>
       <c r="W73" s="81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.3787166318711905E-2</v>
       </c>
     </row>
     <row r="74" spans="6:23">
       <c r="I74" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="J74" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.63</v>
       </c>
       <c r="K74" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="L74" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000009583</v>
       </c>
       <c r="M74" s="30" cm="1">
@@ -18014,54 +18005,54 @@
         <v>0.48874049548274839</v>
       </c>
       <c r="N74" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O74" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="P74" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q74" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R74" s="25"/>
-      <c r="S74" s="177">
+      <c r="S74" s="154">
         <f>MIN(1,POWER(I74/
  CHOOSE(MATCH($D$5,{9.5;12.5;19;25;37.5;50;75},0),
    10,20,20,40,40,80,80),0.5))</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="T74" s="143"/>
-      <c r="U74" s="182">
-        <f t="shared" si="26"/>
+      <c r="T74" s="147"/>
+      <c r="U74" s="155">
+        <f t="shared" si="29"/>
         <v>0.48874049548274839</v>
       </c>
-      <c r="V74" s="183"/>
+      <c r="V74" s="156"/>
       <c r="W74" s="81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4.7683834732073251E-2</v>
       </c>
     </row>
     <row r="75" spans="6:23">
       <c r="I75" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="J75" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.49000000000000005</v>
       </c>
       <c r="K75" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="L75" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.97375168830380976</v>
       </c>
       <c r="M75" s="30" cm="1">
@@ -18078,54 +18069,54 @@
         <v>0.39953252445268334</v>
       </c>
       <c r="N75" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.6248311697148585E-2</v>
       </c>
       <c r="O75" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
       <c r="P75" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q75" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R75" s="25"/>
-      <c r="S75" s="177">
+      <c r="S75" s="154">
         <f>MIN(1,POWER(I75/
  CHOOSE(MATCH($D$5,{9.5;12.5;19;25;37.5;50;75},0),
    10,20,20,40,40,80,80),0.5))</f>
         <v>0.5</v>
       </c>
-      <c r="T75" s="143"/>
-      <c r="U75" s="182">
-        <f t="shared" si="26"/>
+      <c r="T75" s="147"/>
+      <c r="U75" s="155">
+        <f t="shared" si="29"/>
         <v>0.39953252445268334</v>
       </c>
-      <c r="V75" s="183"/>
+      <c r="V75" s="156"/>
       <c r="W75" s="81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.0093713642850673E-2</v>
       </c>
     </row>
     <row r="76" spans="6:23">
       <c r="I76" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.25</v>
       </c>
       <c r="J76" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.38</v>
       </c>
       <c r="K76" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>12.5</v>
       </c>
       <c r="L76" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.91375554728175601</v>
       </c>
       <c r="M76" s="30" cm="1">
@@ -18142,54 +18133,54 @@
         <v>0.27915342646643082</v>
       </c>
       <c r="N76" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>5.9996141022053751E-2</v>
       </c>
       <c r="O76" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
       <c r="P76" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.05</v>
       </c>
       <c r="Q76" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R76" s="25"/>
-      <c r="S76" s="177">
+      <c r="S76" s="154">
         <f>MIN(1,POWER(I76/
  CHOOSE(MATCH($D$5,{9.5;12.5;19;25;37.5;50;75},0),
    10,20,20,40,40,80,80),0.5))</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="T76" s="143"/>
-      <c r="U76" s="182">
-        <f t="shared" si="26"/>
+      <c r="T76" s="147"/>
+      <c r="U76" s="155">
+        <f t="shared" si="29"/>
         <v>0.27915342646643082</v>
       </c>
-      <c r="V76" s="183"/>
+      <c r="V76" s="156"/>
       <c r="W76" s="81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>5.5353546620755204E-3</v>
       </c>
     </row>
     <row r="77" spans="6:23">
       <c r="I77" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.63</v>
       </c>
       <c r="J77" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.20750000000000002</v>
       </c>
       <c r="K77" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>9.5</v>
       </c>
       <c r="L77" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.79375940625964458</v>
       </c>
       <c r="M77" s="30" cm="1">
@@ -18206,54 +18197,54 @@
         <v>0.19336871568502345</v>
       </c>
       <c r="N77" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.11999614102211142</v>
       </c>
       <c r="O77" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
       <c r="P77" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.05</v>
       </c>
       <c r="Q77" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R77" s="25"/>
-      <c r="S77" s="177">
+      <c r="S77" s="154">
         <f>MIN(1,POWER(I77/
  CHOOSE(MATCH($D$5,{9.5;12.5;19;25;37.5;50;75},0),
    10,20,20,40,40,80,80),0.5))</f>
         <v>0.25099800796022265</v>
       </c>
-      <c r="T77" s="143"/>
-      <c r="U77" s="182">
-        <f t="shared" si="26"/>
+      <c r="T77" s="147"/>
+      <c r="U77" s="155">
+        <f t="shared" si="29"/>
         <v>0.19336871568502345</v>
       </c>
-      <c r="V77" s="183"/>
+      <c r="V77" s="156"/>
       <c r="W77" s="81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.3211353281403337E-3</v>
       </c>
     </row>
     <row r="78" spans="6:23">
       <c r="I78" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.315</v>
       </c>
       <c r="J78" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11</v>
       </c>
       <c r="K78" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6.3</v>
       </c>
       <c r="L78" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.60126278286521329</v>
       </c>
       <c r="M78" s="30" cm="1">
@@ -18270,54 +18261,54 @@
         <v>6.5491126476450098E-2</v>
       </c>
       <c r="N78" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.1924966233944313</v>
       </c>
       <c r="O78" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
       <c r="P78" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.05</v>
       </c>
       <c r="Q78" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R78" s="25"/>
-      <c r="S78" s="177">
+      <c r="S78" s="154">
         <f>MIN(1,POWER(I78/
  CHOOSE(MATCH($D$5,{9.5;12.5;19;25;37.5;50;75},0),
    10,20,20,40,40,80,80),0.5))</f>
         <v>0.17748239349298847</v>
       </c>
-      <c r="T78" s="143"/>
-      <c r="U78" s="182">
-        <f t="shared" si="26"/>
+      <c r="T78" s="147"/>
+      <c r="U78" s="155">
+        <f t="shared" si="29"/>
         <v>6.5491126476450098E-2</v>
       </c>
-      <c r="V78" s="183"/>
+      <c r="V78" s="156"/>
       <c r="W78" s="81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.2542043887969596E-2</v>
       </c>
     </row>
     <row r="79" spans="6:23">
       <c r="I79" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.16</v>
       </c>
       <c r="J79" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.05</v>
       </c>
       <c r="K79" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4.75</v>
       </c>
       <c r="L79" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.46376712421533567</v>
       </c>
       <c r="M79" s="30" cm="1">
@@ -18334,36 +18325,36 @@
         <v>3.3579030867231227E-2</v>
       </c>
       <c r="N79" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.13749565864987762</v>
       </c>
       <c r="O79" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
       <c r="P79" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.05</v>
       </c>
       <c r="Q79" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R79" s="25"/>
-      <c r="S79" s="177">
+      <c r="S79" s="154">
         <f>MIN(1,POWER(I79/
  CHOOSE(MATCH($D$5,{9.5;12.5;19;25;37.5;50;75},0),
    10,20,20,40,40,80,80),0.5))</f>
         <v>0.12649110640673517</v>
       </c>
-      <c r="T79" s="143"/>
-      <c r="U79" s="182">
-        <f t="shared" si="26"/>
+      <c r="T79" s="147"/>
+      <c r="U79" s="155">
+        <f t="shared" si="29"/>
         <v>3.3579030867231227E-2</v>
       </c>
-      <c r="V79" s="183"/>
+      <c r="V79" s="156"/>
       <c r="W79" s="81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>8.6326537810584858E-3</v>
       </c>
     </row>
@@ -18371,67 +18362,67 @@
       <c r="I80" s="15"/>
       <c r="J80" s="30"/>
       <c r="K80" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.36</v>
       </c>
       <c r="L80" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.39376519472626675</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>7.0001929489068915E-2</v>
       </c>
       <c r="O80" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.125</v>
       </c>
       <c r="P80" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q80" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R80" s="25"/>
       <c r="U80" s="19"/>
       <c r="V80" s="19"/>
     </row>
-    <row r="81" spans="9:28" ht="17">
+    <row r="81" spans="9:28">
       <c r="I81" s="15"/>
       <c r="J81" s="30"/>
       <c r="K81" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.18</v>
       </c>
       <c r="L81" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.26876037100364236</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.12500482372262439</v>
       </c>
       <c r="O81" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.125</v>
       </c>
       <c r="P81" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q81" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R81" s="25"/>
-      <c r="S81" s="143" t="s">
+      <c r="S81" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="T81" s="143"/>
+      <c r="T81" s="147"/>
       <c r="U81" s="19"/>
       <c r="V81" s="18" t="s">
         <v>186</v>
@@ -18441,36 +18432,36 @@
       <c r="I82" s="15"/>
       <c r="J82" s="30"/>
       <c r="K82" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.6</v>
       </c>
       <c r="L82" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.18750723558393653</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>8.125313541970583E-2</v>
       </c>
       <c r="O82" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
       <c r="P82" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.05</v>
       </c>
       <c r="Q82" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R82" s="25"/>
-      <c r="S82" s="193">
+      <c r="S82" s="148">
         <f>SUM(W70:W79)</f>
         <v>0.12205140047651675</v>
       </c>
-      <c r="T82" s="193"/>
+      <c r="T82" s="148"/>
       <c r="U82" s="19"/>
       <c r="V82" s="109">
         <f>MIN($S$82)</f>
@@ -18481,28 +18472,28 @@
       <c r="I83" s="15"/>
       <c r="J83" s="30"/>
       <c r="K83" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.3</v>
       </c>
       <c r="L83" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.6252170675180936E-2</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.1312550649087556</v>
       </c>
       <c r="O83" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
       <c r="P83" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.05</v>
       </c>
       <c r="Q83" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R83" s="25"/>
@@ -18516,28 +18507,28 @@
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.15</v>
       </c>
       <c r="L84" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3.1251205930656091E-2</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.5000964744524845E-2</v>
       </c>
       <c r="O84" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="P84" s="99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q84" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R84" s="25"/>
@@ -18560,33 +18551,33 @@
       </c>
     </row>
     <row r="87" spans="9:28">
-      <c r="I87" s="179" t="s">
+      <c r="I87" s="149" t="s">
         <v>181</v>
       </c>
-      <c r="J87" s="159"/>
-      <c r="K87" s="160"/>
-      <c r="M87" s="179" t="s">
+      <c r="J87" s="150"/>
+      <c r="K87" s="151"/>
+      <c r="M87" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="N87" s="184"/>
-      <c r="O87" s="184"/>
-      <c r="P87" s="184"/>
-      <c r="Q87" s="184"/>
-      <c r="R87" s="184"/>
-      <c r="S87" s="184"/>
-      <c r="T87" s="185"/>
+      <c r="N87" s="152"/>
+      <c r="O87" s="152"/>
+      <c r="P87" s="152"/>
+      <c r="Q87" s="152"/>
+      <c r="R87" s="152"/>
+      <c r="S87" s="152"/>
+      <c r="T87" s="153"/>
       <c r="V87" s="14">
         <f>{0;0;0;100;0;FALSE;TRUE;"""""""""""""""""""""""""""""""0,075""""""""""""""""""""""""""""""";0;0;FALSE;30}</f>
         <v>0</v>
       </c>
-      <c r="Y87" s="161" t="s">
+      <c r="Y87" s="146" t="s">
         <v>197</v>
       </c>
-      <c r="Z87" s="143"/>
-      <c r="AA87" s="143"/>
-      <c r="AB87" s="143"/>
+      <c r="Z87" s="147"/>
+      <c r="AA87" s="147"/>
+      <c r="AB87" s="147"/>
     </row>
-    <row r="88" spans="9:28" ht="34">
+    <row r="88" spans="9:28" ht="31.5">
       <c r="I88" s="14" t="s">
         <v>92</v>
       </c>
@@ -18734,7 +18725,7 @@
         <v>97.393110205329009</v>
       </c>
       <c r="AA90" s="14">
-        <f t="shared" ref="AA90:AA92" si="30">Z90*$W$91</f>
+        <f t="shared" ref="AA90:AA92" si="33">Z90*$W$91</f>
         <v>96.618521736432612</v>
       </c>
       <c r="AB90" s="110">
@@ -18784,7 +18775,7 @@
         <v>1961.4524870501057</v>
       </c>
       <c r="AA91" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1945.852631212726</v>
       </c>
       <c r="AB91" s="112">
@@ -18844,7 +18835,7 @@
         <v>2368.8398960074355</v>
       </c>
       <c r="AA92" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2350</v>
       </c>
       <c r="AB92" s="14">
@@ -18854,7 +18845,7 @@
     </row>
     <row r="93" spans="9:28">
       <c r="I93" s="14" t="str">
-        <f t="shared" ref="I93:I94" si="31">I63</f>
+        <f t="shared" ref="I93:I94" si="34">I63</f>
         <v>Gravilla 1</v>
       </c>
       <c r="J93" s="14">
@@ -18865,7 +18856,7 @@
         <v>95</v>
       </c>
       <c r="M93" s="72" t="str">
-        <f t="shared" ref="M93:M94" si="32">I93</f>
+        <f t="shared" ref="M93:M94" si="35">I93</f>
         <v>Gravilla 1</v>
       </c>
       <c r="N93" s="13">
@@ -18877,7 +18868,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="P93" s="13">
-        <f t="shared" ref="P93:P94" si="33">-(N93*O93)/(O93+1)</f>
+        <f t="shared" ref="P93:P94" si="36">-(N93*O93)/(O93+1)</f>
         <v>-8.2970345501338514</v>
       </c>
       <c r="Q93" s="117">
@@ -18885,7 +18876,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="R93" s="118">
-        <f t="shared" ref="R93:R94" si="34">N93/(O93+1)</f>
+        <f t="shared" ref="R93:R94" si="37">N93/(O93+1)</f>
         <v>691.41954584448752</v>
       </c>
       <c r="S93" s="118">
@@ -18893,13 +18884,13 @@
         <v>48.39936820911413</v>
       </c>
       <c r="T93" s="73">
-        <f t="shared" ref="T93:T94" si="35">R93+S93</f>
+        <f t="shared" ref="T93:T94" si="38">R93+S93</f>
         <v>739.8189140536017</v>
       </c>
     </row>
     <row r="94" spans="9:28">
       <c r="I94" s="14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Arena 1</v>
       </c>
       <c r="J94" s="14">
@@ -18910,7 +18901,7 @@
         <v>95</v>
       </c>
       <c r="M94" s="72" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>Arena 1</v>
       </c>
       <c r="N94" s="13">
@@ -18922,7 +18913,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="P94" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-13.829814033922688</v>
       </c>
       <c r="Q94" s="117">
@@ -18930,15 +18921,15 @@
         <v>0.06</v>
       </c>
       <c r="R94" s="118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1152.4845028268905</v>
       </c>
       <c r="S94" s="118">
-        <f t="shared" ref="S94" si="36">R94*Q94</f>
+        <f t="shared" ref="S94" si="39">R94*Q94</f>
         <v>69.149070169613424</v>
       </c>
       <c r="T94" s="73">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1221.633572996504</v>
       </c>
     </row>
@@ -18983,6 +18974,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I24:Y24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="U69:V69"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="U71:V71"/>
+    <mergeCell ref="I68:M68"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="M57:T57"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
     <mergeCell ref="Y87:AB87"/>
     <mergeCell ref="Y57:AB57"/>
     <mergeCell ref="S82:T82"/>
@@ -19007,88 +19080,6 @@
     <mergeCell ref="U73:V73"/>
     <mergeCell ref="S74:T74"/>
     <mergeCell ref="U74:V74"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="U69:V69"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="U71:V71"/>
-    <mergeCell ref="I68:M68"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="M57:T57"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I24:Y24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="X1:AD1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="Q40:Q54">
     <cfRule type="colorScale" priority="2">
@@ -19137,11 +19128,11 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19157,9 +19148,9 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.1875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
@@ -19183,55 +19174,55 @@
       <c r="D2" s="198" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="196"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="157" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="196"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="157" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="197" t="s">
         <v>202</v>
       </c>
-      <c r="K2" s="196"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="157" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="197" t="s">
         <v>203</v>
       </c>
-      <c r="N2" s="196"/>
-      <c r="O2" s="194"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="123"/>
       <c r="B3" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="194"/>
+      <c r="C3" s="200"/>
       <c r="D3" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="194"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="194"/>
+      <c r="H3" s="200"/>
       <c r="I3" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="194"/>
+      <c r="K3" s="200"/>
       <c r="L3" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="157" t="s">
+      <c r="M3" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="194"/>
+      <c r="N3" s="200"/>
       <c r="O3" s="125" t="s">
         <v>8</v>
       </c>
@@ -19603,10 +19594,10 @@
         <v>0.97</v>
       </c>
       <c r="P10" s="123"/>
-      <c r="Q10" s="164" t="s">
+      <c r="Q10" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="194"/>
+      <c r="R10" s="200"/>
       <c r="S10" s="129">
         <v>1.2E-2</v>
       </c>
@@ -19670,10 +19661,10 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="P11" s="123"/>
-      <c r="Q11" s="164" t="s">
+      <c r="Q11" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="194"/>
+      <c r="R11" s="200"/>
       <c r="S11" s="129">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -19737,10 +19728,10 @@
         <v>0.52999999999999992</v>
       </c>
       <c r="P12" s="123"/>
-      <c r="Q12" s="164" t="s">
+      <c r="Q12" s="175" t="s">
         <v>137</v>
       </c>
-      <c r="R12" s="194"/>
+      <c r="R12" s="200"/>
       <c r="S12" s="3">
         <v>2.8</v>
       </c>
@@ -20148,10 +20139,10 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="123"/>
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="194"/>
+      <c r="C20" s="200"/>
       <c r="D20" s="5">
         <v>0</v>
       </c>
@@ -20183,10 +20174,10 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="123"/>
-      <c r="B21" s="164" t="s">
+      <c r="B21" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="194"/>
+      <c r="C21" s="200"/>
       <c r="D21" s="5">
         <f>SUM(D5:D19)</f>
         <v>1000</v>
@@ -20258,58 +20249,58 @@
       <c r="A25" s="123"/>
       <c r="B25" s="124"/>
       <c r="C25" s="124"/>
-      <c r="D25" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="196"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="197" t="s">
+      <c r="D25" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="199"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="201" t="s">
         <v>211</v>
       </c>
-      <c r="H25" s="196"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="197" t="s">
+      <c r="H25" s="199"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="201" t="s">
         <v>212</v>
       </c>
-      <c r="K25" s="196"/>
-      <c r="L25" s="194"/>
-      <c r="M25" s="197" t="s">
+      <c r="K25" s="199"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="201" t="s">
         <v>213</v>
       </c>
-      <c r="N25" s="196"/>
-      <c r="O25" s="194"/>
+      <c r="N25" s="199"/>
+      <c r="O25" s="200"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="123"/>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="194"/>
-      <c r="D26" s="156" t="s">
+      <c r="C26" s="200"/>
+      <c r="D26" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="194"/>
+      <c r="E26" s="200"/>
       <c r="F26" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="197" t="s">
+      <c r="G26" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="194"/>
+      <c r="H26" s="200"/>
       <c r="I26" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="197" t="s">
+      <c r="J26" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="194"/>
+      <c r="K26" s="200"/>
       <c r="L26" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="197" t="s">
+      <c r="M26" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="194"/>
+      <c r="N26" s="200"/>
       <c r="O26" s="132" t="s">
         <v>8</v>
       </c>
@@ -20595,10 +20586,10 @@
       <c r="O32" s="4">
         <v>0.68</v>
       </c>
-      <c r="Q32" s="164" t="s">
+      <c r="Q32" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="R32" s="194"/>
+      <c r="R32" s="200"/>
       <c r="S32" s="129">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -20659,10 +20650,10 @@
         <f t="shared" ref="O33:O39" si="7">O32-N33</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="Q33" s="164" t="s">
+      <c r="Q33" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="R33" s="194"/>
+      <c r="R33" s="200"/>
       <c r="S33" s="129">
         <v>0.04</v>
       </c>
@@ -20723,10 +20714,10 @@
         <f t="shared" si="7"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="Q34" s="164" t="s">
+      <c r="Q34" s="175" t="s">
         <v>137</v>
       </c>
-      <c r="R34" s="194"/>
+      <c r="R34" s="200"/>
       <c r="S34" s="3">
         <v>2.6</v>
       </c>
@@ -21117,10 +21108,10 @@
       </c>
     </row>
     <row r="43" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B43" s="164" t="s">
+      <c r="B43" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="194"/>
+      <c r="C43" s="200"/>
       <c r="D43" s="5">
         <v>0</v>
       </c>
@@ -21143,10 +21134,10 @@
       <c r="O43" s="124"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B44" s="164" t="s">
+      <c r="B44" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="194"/>
+      <c r="C44" s="200"/>
       <c r="D44" s="5">
         <f>SUM(D28:D42)</f>
         <v>1000</v>
@@ -21179,57 +21170,57 @@
     <row r="49" spans="2:22" ht="15.75" customHeight="1">
       <c r="B49" s="124"/>
       <c r="C49" s="124"/>
-      <c r="D49" s="195" t="s">
+      <c r="D49" s="202" t="s">
         <v>214</v>
       </c>
-      <c r="E49" s="196"/>
-      <c r="F49" s="194"/>
-      <c r="G49" s="144" t="s">
+      <c r="E49" s="199"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="187" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="196"/>
-      <c r="I49" s="194"/>
-      <c r="J49" s="144" t="s">
+      <c r="H49" s="199"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="196"/>
-      <c r="L49" s="194"/>
-      <c r="M49" s="144" t="s">
+      <c r="K49" s="199"/>
+      <c r="L49" s="200"/>
+      <c r="M49" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="N49" s="196"/>
-      <c r="O49" s="194"/>
+      <c r="N49" s="199"/>
+      <c r="O49" s="200"/>
     </row>
     <row r="50" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B50" s="195" t="s">
+      <c r="B50" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="194"/>
-      <c r="D50" s="195" t="s">
+      <c r="C50" s="200"/>
+      <c r="D50" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="194"/>
+      <c r="E50" s="200"/>
       <c r="F50" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="144" t="s">
+      <c r="G50" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="194"/>
+      <c r="H50" s="200"/>
       <c r="I50" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="144" t="s">
+      <c r="J50" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="194"/>
+      <c r="K50" s="200"/>
       <c r="L50" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="M50" s="144" t="s">
+      <c r="M50" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="N50" s="194"/>
+      <c r="N50" s="200"/>
       <c r="O50" s="136" t="s">
         <v>8</v>
       </c>
@@ -21555,10 +21546,10 @@
       <c r="O57" s="4">
         <v>1</v>
       </c>
-      <c r="Q57" s="164" t="s">
+      <c r="Q57" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="R57" s="194"/>
+      <c r="R57" s="200"/>
       <c r="S57" s="129">
         <v>1.2E-2</v>
       </c>
@@ -21616,10 +21607,10 @@
       <c r="O58" s="4">
         <v>1</v>
       </c>
-      <c r="Q58" s="164" t="s">
+      <c r="Q58" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="R58" s="194"/>
+      <c r="R58" s="200"/>
       <c r="S58" s="129">
         <v>0.06</v>
       </c>
@@ -21678,10 +21669,10 @@
       <c r="O59" s="4">
         <v>1</v>
       </c>
-      <c r="Q59" s="164" t="s">
+      <c r="Q59" s="175" t="s">
         <v>137</v>
       </c>
-      <c r="R59" s="194"/>
+      <c r="R59" s="200"/>
       <c r="S59" s="3">
         <v>2.7</v>
       </c>
@@ -22032,10 +22023,10 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B67" s="164" t="s">
+      <c r="B67" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="194"/>
+      <c r="C67" s="200"/>
       <c r="D67" s="5">
         <v>50</v>
       </c>
@@ -22058,10 +22049,10 @@
       <c r="O67" s="124"/>
     </row>
     <row r="68" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B68" s="164" t="s">
+      <c r="B68" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="194"/>
+      <c r="C68" s="200"/>
       <c r="D68" s="5">
         <f>SUM(D52:D67)</f>
         <v>1000</v>
@@ -23021,15 +23012,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
     <mergeCell ref="Q32:R32"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
@@ -23045,24 +23045,15 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
